--- a/teszt.xlsx
+++ b/teszt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\diki\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Munka2" sheetId="3" r:id="rId3"/>
     <sheet name="Munka1" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -252,9 +252,6 @@
     <t>egy héttel több</t>
   </si>
   <si>
-    <t>két héttel több</t>
-  </si>
-  <si>
     <t>end;2019-08-14</t>
   </si>
   <si>
@@ -268,6 +265,9 @@
   </si>
   <si>
     <t>kedd, szombat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">két héttel több </t>
   </si>
 </sst>
 </file>
@@ -781,19 +781,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1479,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55:B56"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1728,19 +1728,19 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1833,17 +1833,17 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1876,19 +1876,19 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1960,7 +1960,7 @@
       <c r="A29" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="3">
         <v>43641</v>
       </c>
       <c r="C29" t="s">
@@ -2203,12 +2203,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="7">
+      <c r="D38" s="4">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
@@ -2237,21 +2237,21 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2425,69 +2425,69 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-    </row>
-    <row r="49" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+    </row>
+    <row r="49" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D49" s="5">
         <f>SUM(F49:J49)</f>
         <v>21</v>
       </c>
-      <c r="E49" s="8">
+      <c r="E49" s="5">
         <v>13</v>
       </c>
-      <c r="F49" s="8">
+      <c r="F49" s="5">
         <v>3</v>
       </c>
-      <c r="G49" s="8">
-        <v>5</v>
-      </c>
-      <c r="H49" s="8">
-        <v>5</v>
-      </c>
-      <c r="I49" s="8">
-        <v>4</v>
-      </c>
-      <c r="J49" s="8">
+      <c r="G49" s="5">
+        <v>5</v>
+      </c>
+      <c r="H49" s="5">
+        <v>5</v>
+      </c>
+      <c r="I49" s="5">
+        <v>4</v>
+      </c>
+      <c r="J49" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="A50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51">
         <f>SUM(F51:J51)</f>
@@ -2514,10 +2514,10 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D53">
-        <f t="shared" ref="D52:D54" si="4">SUM(F53:J53)</f>
+        <f t="shared" ref="D53:D54" si="4">SUM(F53:J53)</f>
         <v>25</v>
       </c>
       <c r="E53">
@@ -2539,12 +2539,12 @@
         <v>5</v>
       </c>
       <c r="M53" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54">
         <f t="shared" si="4"/>
@@ -2569,17 +2569,17 @@
         <v>5</v>
       </c>
       <c r="M54" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A50:M50"/>
     <mergeCell ref="A16:K16"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A39:M39"/>
     <mergeCell ref="A48:M48"/>
-    <mergeCell ref="A50:M50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
